--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB142C-785A-4198-81F8-3FC92FBCC4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314E733-7C05-4BA0-A44A-EBADFAE5F229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>Sample</t>
   </si>
@@ -288,13 +288,7 @@
     <t>target ppm</t>
   </si>
   <si>
-    <t>CDF</t>
-  </si>
-  <si>
     <t>requires either bedrock or soil composition OR CDF</t>
-  </si>
-  <si>
-    <t>required if CDF is not provided</t>
   </si>
 </sst>
 </file>
@@ -764,7 +758,7 @@
   <dimension ref="A1:CB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>216620</v>
+        <v>216885</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1564,7 +1558,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314E733-7C05-4BA0-A44A-EBADFAE5F229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080EA81-F19F-4CE8-A225-23E8CBBE565D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>requires either bedrock or soil composition OR CDF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,488 +794,488 @@
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW1" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
         <v>17</v>
       </c>
-      <c r="AW1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB1" t="s">
         <v>72</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="AR2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AS2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="AU2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AV2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AW2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AX2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="BB2" t="s">
         <v>82</v>
       </c>
-      <c r="O2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="BC2" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BD2" t="s">
         <v>85</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BE2" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="BF2" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="BG2" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO2" t="s">
         <v>86</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BP2" t="s">
         <v>86</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BQ2" t="s">
         <v>86</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BR2" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BS2" t="s">
         <v>86</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BT2" t="s">
         <v>86</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BU2" t="s">
         <v>86</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BV2" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>87</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>87</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>87</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>87</v>
       </c>
-      <c r="BS2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CA2" t="s">
         <v>88</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11">
         <v>48.585000000000001</v>
@@ -1446,13 +1446,13 @@
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,45 +1481,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
         <v>0.05</v>
@@ -1537,10 +1537,10 @@
         <v>200</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7">
         <v>50</v>
@@ -1552,13 +1552,13 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080EA81-F19F-4CE8-A225-23E8CBBE565D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A779B-8E38-414C-A9AC-DA3C4503ADD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
   <si>
     <t>Pressure</t>
   </si>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,6 +417,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,7 +1467,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,10 +1543,10 @@
       <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="19">
         <v>50</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="19">
         <v>5</v>
       </c>
     </row>

--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A779B-8E38-414C-A9AC-DA3C4503ADD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
     <sheet name="Composition and other" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>Pressure</t>
   </si>
@@ -87,9 +86,6 @@
     <t>scaling model (st,sf,sa…)</t>
   </si>
   <si>
-    <t>soil mass (g/cm2)</t>
-  </si>
-  <si>
     <t>Weathering rate (mm/ka)</t>
   </si>
   <si>
@@ -289,12 +285,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>regolith mass (g/cm2)</t>
+  </si>
+  <si>
+    <t>required input (can mostly be replaced by zeros if not measured)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -320,7 +322,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -405,19 +401,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,23 +510,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -563,23 +545,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -755,65 +720,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="35" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -822,115 +787,115 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>64</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>65</v>
       </c>
       <c r="AR1" t="s">
         <v>14</v>
       </c>
       <c r="AS1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" t="s">
         <v>66</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>67</v>
       </c>
       <c r="AU1" t="s">
         <v>15</v>
@@ -939,135 +904,135 @@
         <v>16</v>
       </c>
       <c r="AW1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>70</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>71</v>
       </c>
       <c r="BA1" t="s">
         <v>17</v>
       </c>
       <c r="BB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>38</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>39</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>40</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>41</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>42</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>44</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>45</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>46</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>47</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>48</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>49</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>50</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>51</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>52</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>53</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>54</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>56</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>57</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>58</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>61</v>
       </c>
-      <c r="CA1" t="s">
-        <v>62</v>
-      </c>
       <c r="CB1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1076,115 +1041,115 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
-        <v>82</v>
-      </c>
       <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AK2" t="s">
         <v>83</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AL2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AM2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AN2" t="s">
         <v>83</v>
       </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
       <c r="AO2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>73</v>
       </c>
-      <c r="AP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>74</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>75</v>
       </c>
       <c r="AS2" t="s">
         <v>5</v>
       </c>
       <c r="AT2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>79</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>80</v>
       </c>
       <c r="AY2" t="s">
         <v>4</v>
@@ -1193,95 +1158,95 @@
         <v>4</v>
       </c>
       <c r="BA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB2" t="s">
         <v>81</v>
       </c>
-      <c r="BB2" t="s">
-        <v>82</v>
-      </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO2" t="s">
         <v>85</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BP2" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BQ2" t="s">
         <v>85</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BR2" t="s">
         <v>85</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BS2" t="s">
         <v>85</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BT2" t="s">
         <v>85</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BU2" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BV2" t="s">
         <v>85</v>
       </c>
-      <c r="BK2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>86</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>86</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>86</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>86</v>
       </c>
-      <c r="BS2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CA2" t="s">
         <v>87</v>
       </c>
-      <c r="BX2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>48.585000000000001</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>9.25</v>
       </c>
       <c r="D3" s="6">
@@ -1290,16 +1255,16 @@
       <c r="F3">
         <v>6.25E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>2.6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="14">
         <v>216885</v>
       </c>
       <c r="M3">
@@ -1311,146 +1276,146 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="12">
         <v>15.11</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="12">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="12">
         <v>1.3</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="12">
         <v>1.37</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="12">
         <v>0.45</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="12">
         <v>44.79</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="12">
         <v>0.11</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="12">
         <v>0.26</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="12">
         <v>0.08</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="16">
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="12">
         <v>37.06</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="17">
         <v>26.94</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="16">
         <v>0</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="18">
         <v>2.7</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="12">
         <v>2.4</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="12">
         <v>0.8</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="12">
         <v>2.5</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AH3" s="19">
         <v>0</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AI3" s="19">
         <v>0</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="12">
         <v>0</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="12">
         <v>56.757492528031307</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="12">
         <v>1.0574911744800741E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="12">
         <v>0.8971040222421397</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="17">
         <v>26.94</v>
       </c>
-      <c r="AO3" s="17">
+      <c r="AO3" s="11">
         <v>0</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="11">
         <v>0</v>
       </c>
-      <c r="AQ3" s="17">
+      <c r="AQ3" s="11">
         <v>0</v>
       </c>
-      <c r="AR3" s="17">
+      <c r="AR3" s="11">
         <v>0</v>
       </c>
-      <c r="AS3" s="17">
+      <c r="AS3" s="11">
         <v>0</v>
       </c>
       <c r="AT3">
         <v>0.1</v>
       </c>
-      <c r="AU3" s="17">
+      <c r="AU3" s="11">
         <v>0</v>
       </c>
-      <c r="AV3" s="17">
+      <c r="AV3" s="11">
         <v>0</v>
       </c>
-      <c r="AW3" s="13">
+      <c r="AW3" s="20">
         <v>12100</v>
       </c>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="17"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="17"/>
-      <c r="BM3" s="17"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="17"/>
-      <c r="BP3" s="17"/>
-      <c r="BQ3" s="17"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="17"/>
-      <c r="BU3" s="17"/>
-      <c r="BV3" s="17"/>
-      <c r="BW3" s="17"/>
-      <c r="BX3" s="17"/>
-      <c r="BY3" s="17"/>
-      <c r="BZ3" s="17"/>
-      <c r="CA3" s="17"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -1463,26 +1428,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1503,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>22</v>
@@ -1512,13 +1477,13 @@
         <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1538,28 +1503,28 @@
         <v>200</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="13">
         <v>50</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0BFDF-74FA-4B12-9439-74B2D9D2677A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B12DC4-7460-4BE6-B8A4-63FD8FE8A15D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Sample</t>
   </si>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -384,6 +384,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1377,7 @@
       <c r="AV3" s="15">
         <v>0</v>
       </c>
-      <c r="AW3" s="11">
+      <c r="AW3" s="17">
         <v>12100</v>
       </c>
       <c r="AX3" s="15"/>
@@ -1432,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Test_Input_Single_Cl.xlsx
+++ b/Test_Input_Single_Cl.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1FA76-362D-4C0C-873A-5DB295280665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -510,6 +511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,45 +755,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="35" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1000,7 +1035,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <v>216885</v>
+        <v>215142</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1409,13 +1444,13 @@
       <c r="BZ3" s="11"/>
       <c r="CA3" s="11"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -1428,24 +1463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1515,13 +1550,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>88</v>
